--- a/medicine/Mort/Massacre_de_Dak_Son/Massacre_de_Dak_Son.xlsx
+++ b/medicine/Mort/Massacre_de_Dak_Son/Massacre_de_Dak_Son.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le massacre de Đắk Sơn est un massacre commis par le Front national de libération du Sud Viêt Nam (Viêt-Cong) durant la guerre du Viêt Nam dans le village de Đắk Sơn, dans la province de Đắk Lắk, au Sud Viêt Nam.
@@ -512,10 +524,12 @@
           <t>Déroulement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 5 décembre 1967, deux bataillons viet-cong massacrèrent méthodiquement 252 civils au cours d'une expédition punitive contre le hameau de Đắk Sơn, qui accueillait plus de 2 000 montagnards des Montagnes centrales, connus pour leur opposition féroce au Viet-Cong. À en croire le Viet-Cong, le hameau avait un jour apporté de l'aide à des réfugiés qui tentaient de lui échapper[1].
-Plus de 600 hommes convergèrent dans le village, s'attaquant avec des lance-flammes aux habitations, et massacrant indifféremment hommes, femmes et enfants[2]. Alors que les soldats viet-congs faisaient feu, une majorité d'habitants disparut dans l'incendie des maisons. Certains qui étaient parvenus à trouver refuge dans des trous moururent intoxiqués par la fumée. Les habitations épargnées par les flammes furent abattues à coups de grenades. Avant de quitter le village, le Viet-Cong tua encore soixante personnes parmi les 160 survivants. La plupart des autres furent emmenés comme otages.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 5 décembre 1967, deux bataillons viet-cong massacrèrent méthodiquement 252 civils au cours d'une expédition punitive contre le hameau de Đắk Sơn, qui accueillait plus de 2 000 montagnards des Montagnes centrales, connus pour leur opposition féroce au Viet-Cong. À en croire le Viet-Cong, le hameau avait un jour apporté de l'aide à des réfugiés qui tentaient de lui échapper.
+Plus de 600 hommes convergèrent dans le village, s'attaquant avec des lance-flammes aux habitations, et massacrant indifféremment hommes, femmes et enfants. Alors que les soldats viet-congs faisaient feu, une majorité d'habitants disparut dans l'incendie des maisons. Certains qui étaient parvenus à trouver refuge dans des trous moururent intoxiqués par la fumée. Les habitations épargnées par les flammes furent abattues à coups de grenades. Avant de quitter le village, le Viet-Cong tua encore soixante personnes parmi les 160 survivants. La plupart des autres furent emmenés comme otages.
 </t>
         </is>
       </c>
